--- a/data/144/SCB/old/IndKaputnSNI07Kv.xlsx
+++ b/data/144/SCB/old/IndKaputnSNI07Kv.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="159">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="157">
   <x:si>
     <x:t>Industrial capacity utilisation, actual utilisation, calendar adjusted and seasonally adjusted, percent by industrial classification NACE Rev. 2 and quarter</x:t>
   </x:si>
@@ -397,6 +397,9 @@
     <x:t>2021K2</x:t>
   </x:si>
   <x:si>
+    <x:t>2021K3</x:t>
+  </x:si>
+  <x:si>
     <x:t xml:space="preserve">B+C mining, quarrying, manufacturing </x:t>
   </x:si>
   <x:si>
@@ -421,7 +424,7 @@
     <x:t>Latest update:</x:t>
   </x:si>
   <x:si>
-    <x:t>20210820 09:30</x:t>
+    <x:t>20211119 09:30</x:t>
   </x:si>
   <x:si>
     <x:t>Source:</x:t>
@@ -442,22 +445,13 @@
     <x:t>information@scb.se</x:t>
   </x:si>
   <x:si>
-    <x:t>Daniel Rådelid, Statistics Sweden</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve"> +46 010 479 60 92</x:t>
-  </x:si>
-  <x:si>
-    <x:t>daniel.radelid@scb.se</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Lo Mildh, Statistics Sweden</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve"> +46 010-479 61 65</x:t>
-  </x:si>
-  <x:si>
-    <x:t>lo.mildh@scb.se</x:t>
+    <x:t>Kristina Fränden, Statistics Sweden</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"> +46 010-479 43 89</x:t>
+  </x:si>
+  <x:si>
+    <x:t>kristina.franden@scb.se</x:t>
   </x:si>
   <x:si>
     <x:t>Units:</x:t>
@@ -886,22 +880,22 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:DW54"/>
+  <x:dimension ref="A1:DX50"/>
   <x:sheetViews>
     <x:sheetView tabSelected="0" workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
     <x:col min="1" max="1" width="40.710625" style="0" customWidth="1"/>
-    <x:col min="2" max="127" width="9.130625" style="0" customWidth="1"/>
+    <x:col min="2" max="128" width="9.130625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="1" spans="1:127">
+    <x:row r="1" spans="1:128">
       <x:c r="A1" s="1" t="s">
         <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="3" spans="1:127">
+    <x:row r="3" spans="1:128">
       <x:c r="B3" s="2" t="s">
         <x:v>1</x:v>
       </x:c>
@@ -1280,10 +1274,13 @@
       <x:c r="DW3" s="2" t="s">
         <x:v>126</x:v>
       </x:c>
-    </x:row>
-    <x:row r="4" spans="1:127">
+      <x:c r="DX3" s="2" t="s">
+        <x:v>127</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:128">
       <x:c r="A4" s="2" t="s">
-        <x:v>127</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="B4" s="3" t="n">
         <x:v>87.5</x:v>
@@ -1292,16 +1289,16 @@
         <x:v>87.5</x:v>
       </x:c>
       <x:c r="D4" s="3" t="n">
-        <x:v>86.4</x:v>
+        <x:v>86.5</x:v>
       </x:c>
       <x:c r="E4" s="3" t="n">
         <x:v>87.4</x:v>
       </x:c>
       <x:c r="F4" s="3" t="n">
-        <x:v>85.4</x:v>
+        <x:v>85.5</x:v>
       </x:c>
       <x:c r="G4" s="3" t="n">
-        <x:v>83.8</x:v>
+        <x:v>83.7</x:v>
       </x:c>
       <x:c r="H4" s="3" t="n">
         <x:v>82.6</x:v>
@@ -1379,7 +1376,7 @@
         <x:v>86.3</x:v>
       </x:c>
       <x:c r="AG4" s="3" t="n">
-        <x:v>88.3</x:v>
+        <x:v>88.4</x:v>
       </x:c>
       <x:c r="AH4" s="3" t="n">
         <x:v>89.1</x:v>
@@ -1547,7 +1544,7 @@
         <x:v>88.2</x:v>
       </x:c>
       <x:c r="CK4" s="3" t="n">
-        <x:v>87.8</x:v>
+        <x:v>87.7</x:v>
       </x:c>
       <x:c r="CL4" s="3" t="n">
         <x:v>88.1</x:v>
@@ -1577,7 +1574,7 @@
         <x:v>88.3</x:v>
       </x:c>
       <x:c r="CU4" s="3" t="n">
-        <x:v>88.7</x:v>
+        <x:v>88.8</x:v>
       </x:c>
       <x:c r="CV4" s="3" t="n">
         <x:v>88.4</x:v>
@@ -1592,16 +1589,16 @@
         <x:v>88.4</x:v>
       </x:c>
       <x:c r="CZ4" s="3" t="n">
-        <x:v>88.9</x:v>
+        <x:v>88.8</x:v>
       </x:c>
       <x:c r="DA4" s="3" t="n">
         <x:v>88.9</x:v>
       </x:c>
       <x:c r="DB4" s="3" t="n">
-        <x:v>89.3</x:v>
+        <x:v>89.4</x:v>
       </x:c>
       <x:c r="DC4" s="3" t="n">
-        <x:v>89</x:v>
+        <x:v>88.9</x:v>
       </x:c>
       <x:c r="DD4" s="3" t="n">
         <x:v>88.3</x:v>
@@ -1631,42 +1628,45 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="DM4" s="3" t="n">
-        <x:v>90.7</x:v>
+        <x:v>90.8</x:v>
       </x:c>
       <x:c r="DN4" s="3" t="n">
         <x:v>90.8</x:v>
       </x:c>
       <x:c r="DO4" s="3" t="n">
-        <x:v>90.8</x:v>
+        <x:v>90.7</x:v>
       </x:c>
       <x:c r="DP4" s="3" t="n">
         <x:v>91.3</x:v>
       </x:c>
       <x:c r="DQ4" s="3" t="n">
-        <x:v>89.5</x:v>
+        <x:v>89.6</x:v>
       </x:c>
       <x:c r="DR4" s="3" t="n">
-        <x:v>89.1</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="DS4" s="3" t="n">
-        <x:v>82.3</x:v>
+        <x:v>82.2</x:v>
       </x:c>
       <x:c r="DT4" s="3" t="n">
-        <x:v>86.1</x:v>
+        <x:v>86.2</x:v>
       </x:c>
       <x:c r="DU4" s="3" t="n">
-        <x:v>87.9</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="DV4" s="3" t="n">
-        <x:v>89.7</x:v>
+        <x:v>89.6</x:v>
       </x:c>
       <x:c r="DW4" s="3" t="n">
-        <x:v>91.3</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="5" spans="1:127">
+        <x:v>91.1</x:v>
+      </x:c>
+      <x:c r="DX4" s="3" t="n">
+        <x:v>90.4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:128">
       <x:c r="A5" s="2" t="s">
-        <x:v>128</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="B5" s="3" t="n">
         <x:v>80.6</x:v>
@@ -1810,7 +1810,7 @@
         <x:v>85.7</x:v>
       </x:c>
       <x:c r="AW5" s="3" t="n">
-        <x:v>86.1</x:v>
+        <x:v>86.2</x:v>
       </x:c>
       <x:c r="AX5" s="3" t="n">
         <x:v>86</x:v>
@@ -1819,7 +1819,7 @@
         <x:v>86.5</x:v>
       </x:c>
       <x:c r="AZ5" s="3" t="n">
-        <x:v>86.7</x:v>
+        <x:v>86.8</x:v>
       </x:c>
       <x:c r="BA5" s="3" t="n">
         <x:v>86.9</x:v>
@@ -1828,7 +1828,7 @@
         <x:v>86.7</x:v>
       </x:c>
       <x:c r="BC5" s="3" t="n">
-        <x:v>86.8</x:v>
+        <x:v>86.7</x:v>
       </x:c>
       <x:c r="BD5" s="3" t="n">
         <x:v>86.6</x:v>
@@ -1837,10 +1837,10 @@
         <x:v>86.2</x:v>
       </x:c>
       <x:c r="BF5" s="3" t="n">
-        <x:v>86.7</x:v>
+        <x:v>86.6</x:v>
       </x:c>
       <x:c r="BG5" s="3" t="n">
-        <x:v>86.7</x:v>
+        <x:v>86.6</x:v>
       </x:c>
       <x:c r="BH5" s="3" t="n">
         <x:v>86.2</x:v>
@@ -1855,37 +1855,37 @@
         <x:v>86</x:v>
       </x:c>
       <x:c r="BL5" s="3" t="n">
-        <x:v>86.7</x:v>
+        <x:v>86.8</x:v>
       </x:c>
       <x:c r="BM5" s="3" t="n">
         <x:v>86.8</x:v>
       </x:c>
       <x:c r="BN5" s="3" t="n">
-        <x:v>83.9</x:v>
+        <x:v>83.8</x:v>
       </x:c>
       <x:c r="BO5" s="3" t="n">
         <x:v>84</x:v>
       </x:c>
       <x:c r="BP5" s="3" t="n">
+        <x:v>84.3</x:v>
+      </x:c>
+      <x:c r="BQ5" s="3" t="n">
+        <x:v>83.6</x:v>
+      </x:c>
+      <x:c r="BR5" s="3" t="n">
+        <x:v>83.8</x:v>
+      </x:c>
+      <x:c r="BS5" s="3" t="n">
+        <x:v>84.3</x:v>
+      </x:c>
+      <x:c r="BT5" s="3" t="n">
         <x:v>84.2</x:v>
-      </x:c>
-      <x:c r="BQ5" s="3" t="n">
-        <x:v>83.5</x:v>
-      </x:c>
-      <x:c r="BR5" s="3" t="n">
-        <x:v>83.9</x:v>
-      </x:c>
-      <x:c r="BS5" s="3" t="n">
-        <x:v>84.4</x:v>
-      </x:c>
-      <x:c r="BT5" s="3" t="n">
-        <x:v>84.1</x:v>
       </x:c>
       <x:c r="BU5" s="3" t="n">
         <x:v>85.4</x:v>
       </x:c>
       <x:c r="BV5" s="3" t="n">
-        <x:v>85.4</x:v>
+        <x:v>85.3</x:v>
       </x:c>
       <x:c r="BW5" s="3" t="n">
         <x:v>84.6</x:v>
@@ -1894,7 +1894,7 @@
         <x:v>84.2</x:v>
       </x:c>
       <x:c r="BY5" s="3" t="n">
-        <x:v>83.7</x:v>
+        <x:v>83.8</x:v>
       </x:c>
       <x:c r="BZ5" s="3" t="n">
         <x:v>83.6</x:v>
@@ -1906,7 +1906,7 @@
         <x:v>84.8</x:v>
       </x:c>
       <x:c r="CC5" s="3" t="n">
-        <x:v>83.5</x:v>
+        <x:v>83.6</x:v>
       </x:c>
       <x:c r="CD5" s="3" t="n">
         <x:v>85</x:v>
@@ -1939,7 +1939,7 @@
         <x:v>83</x:v>
       </x:c>
       <x:c r="CN5" s="3" t="n">
-        <x:v>82.4</x:v>
+        <x:v>82.3</x:v>
       </x:c>
       <x:c r="CO5" s="3" t="n">
         <x:v>82.4</x:v>
@@ -1960,7 +1960,7 @@
         <x:v>82.7</x:v>
       </x:c>
       <x:c r="CU5" s="3" t="n">
-        <x:v>83.3</x:v>
+        <x:v>83.2</x:v>
       </x:c>
       <x:c r="CV5" s="3" t="n">
         <x:v>82.9</x:v>
@@ -1969,87 +1969,90 @@
         <x:v>82.7</x:v>
       </x:c>
       <x:c r="CX5" s="3" t="n">
-        <x:v>83</x:v>
+        <x:v>83.1</x:v>
       </x:c>
       <x:c r="CY5" s="3" t="n">
         <x:v>81.4</x:v>
       </x:c>
       <x:c r="CZ5" s="3" t="n">
-        <x:v>82.1</x:v>
+        <x:v>82.2</x:v>
       </x:c>
       <x:c r="DA5" s="3" t="n">
         <x:v>82.2</x:v>
       </x:c>
       <x:c r="DB5" s="3" t="n">
-        <x:v>81.6</x:v>
+        <x:v>81.7</x:v>
       </x:c>
       <x:c r="DC5" s="3" t="n">
+        <x:v>82.5</x:v>
+      </x:c>
+      <x:c r="DD5" s="3" t="n">
         <x:v>82.6</x:v>
-      </x:c>
-      <x:c r="DD5" s="3" t="n">
-        <x:v>82.5</x:v>
       </x:c>
       <x:c r="DE5" s="3" t="n">
         <x:v>81.8</x:v>
       </x:c>
       <x:c r="DF5" s="3" t="n">
-        <x:v>82.1</x:v>
+        <x:v>82.2</x:v>
       </x:c>
       <x:c r="DG5" s="3" t="n">
-        <x:v>84.5</x:v>
+        <x:v>84.2</x:v>
       </x:c>
       <x:c r="DH5" s="3" t="n">
-        <x:v>83.2</x:v>
+        <x:v>83.3</x:v>
       </x:c>
       <x:c r="DI5" s="3" t="n">
-        <x:v>85.7</x:v>
+        <x:v>85.8</x:v>
       </x:c>
       <x:c r="DJ5" s="3" t="n">
-        <x:v>85.1</x:v>
+        <x:v>85.4</x:v>
       </x:c>
       <x:c r="DK5" s="3" t="n">
-        <x:v>86.1</x:v>
+        <x:v>85.6</x:v>
       </x:c>
       <x:c r="DL5" s="3" t="n">
-        <x:v>85.5</x:v>
+        <x:v>85.6</x:v>
       </x:c>
       <x:c r="DM5" s="3" t="n">
-        <x:v>86.1</x:v>
+        <x:v>86.2</x:v>
       </x:c>
       <x:c r="DN5" s="3" t="n">
-        <x:v>86.3</x:v>
+        <x:v>86.7</x:v>
       </x:c>
       <x:c r="DO5" s="3" t="n">
-        <x:v>85.9</x:v>
+        <x:v>85.3</x:v>
       </x:c>
       <x:c r="DP5" s="3" t="n">
         <x:v>87.6</x:v>
       </x:c>
       <x:c r="DQ5" s="3" t="n">
-        <x:v>86.7</x:v>
+        <x:v>86.9</x:v>
       </x:c>
       <x:c r="DR5" s="3" t="n">
-        <x:v>86.3</x:v>
+        <x:v>86.6</x:v>
       </x:c>
       <x:c r="DS5" s="3" t="n">
-        <x:v>84.1</x:v>
+        <x:v>83.5</x:v>
       </x:c>
       <x:c r="DT5" s="3" t="n">
         <x:v>85.1</x:v>
       </x:c>
       <x:c r="DU5" s="3" t="n">
-        <x:v>84.9</x:v>
+        <x:v>85.1</x:v>
       </x:c>
       <x:c r="DV5" s="3" t="n">
-        <x:v>86.2</x:v>
+        <x:v>86.6</x:v>
       </x:c>
       <x:c r="DW5" s="3" t="n">
-        <x:v>92.4</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="6" spans="1:127">
+        <x:v>90.9</x:v>
+      </x:c>
+      <x:c r="DX5" s="3" t="n">
+        <x:v>90.7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:128">
       <x:c r="A6" s="2" t="s">
-        <x:v>129</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="B6" s="3" t="n">
         <x:v>86.7</x:v>
@@ -2427,12 +2430,15 @@
         <x:v>86.8</x:v>
       </x:c>
       <x:c r="DW6" s="3" t="n">
-        <x:v>94.4</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="7" spans="1:127">
+        <x:v>94.7</x:v>
+      </x:c>
+      <x:c r="DX6" s="3" t="n">
+        <x:v>94.7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:128">
       <x:c r="A7" s="2" t="s">
-        <x:v>130</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="B7" s="3" t="n">
         <x:v>87.3</x:v>
@@ -2447,7 +2453,7 @@
         <x:v>87.3</x:v>
       </x:c>
       <x:c r="F7" s="3" t="n">
-        <x:v>85.3</x:v>
+        <x:v>85.4</x:v>
       </x:c>
       <x:c r="G7" s="3" t="n">
         <x:v>83.6</x:v>
@@ -2516,7 +2522,7 @@
         <x:v>87.5</x:v>
       </x:c>
       <x:c r="AC7" s="3" t="n">
-        <x:v>88.1</x:v>
+        <x:v>88.2</x:v>
       </x:c>
       <x:c r="AD7" s="3" t="n">
         <x:v>87.1</x:v>
@@ -2552,7 +2558,7 @@
         <x:v>88.9</x:v>
       </x:c>
       <x:c r="AO7" s="3" t="n">
-        <x:v>89.3</x:v>
+        <x:v>89.2</x:v>
       </x:c>
       <x:c r="AP7" s="3" t="n">
         <x:v>90.1</x:v>
@@ -2738,16 +2744,16 @@
         <x:v>88.7</x:v>
       </x:c>
       <x:c r="CY7" s="3" t="n">
-        <x:v>88.4</x:v>
+        <x:v>88.3</x:v>
       </x:c>
       <x:c r="CZ7" s="3" t="n">
-        <x:v>88.9</x:v>
+        <x:v>88.8</x:v>
       </x:c>
       <x:c r="DA7" s="3" t="n">
         <x:v>88.8</x:v>
       </x:c>
       <x:c r="DB7" s="3" t="n">
-        <x:v>89.1</x:v>
+        <x:v>89.2</x:v>
       </x:c>
       <x:c r="DC7" s="3" t="n">
         <x:v>88.8</x:v>
@@ -2771,7 +2777,7 @@
         <x:v>91.1</x:v>
       </x:c>
       <x:c r="DJ7" s="3" t="n">
-        <x:v>90</x:v>
+        <x:v>90.1</x:v>
       </x:c>
       <x:c r="DK7" s="3" t="n">
         <x:v>90.7</x:v>
@@ -2795,7 +2801,7 @@
         <x:v>89.4</x:v>
       </x:c>
       <x:c r="DR7" s="3" t="n">
-        <x:v>88.9</x:v>
+        <x:v>88.8</x:v>
       </x:c>
       <x:c r="DS7" s="3" t="n">
         <x:v>82</x:v>
@@ -2807,162 +2813,147 @@
         <x:v>87.8</x:v>
       </x:c>
       <x:c r="DV7" s="3" t="n">
-        <x:v>89.5</x:v>
+        <x:v>89.4</x:v>
       </x:c>
       <x:c r="DW7" s="3" t="n">
-        <x:v>91.2</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="9" spans="1:127">
+        <x:v>91.1</x:v>
+      </x:c>
+      <x:c r="DX7" s="3" t="n">
+        <x:v>90.3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:128">
       <x:c r="A9" s="4" t="s">
-        <x:v>131</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="10" spans="1:127">
+        <x:v>132</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="1:128">
       <x:c r="A10" s="4" t="s">
-        <x:v>132</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="11" spans="1:127">
+        <x:v>133</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11" spans="1:128">
       <x:c r="A11" s="4" t="s">
-        <x:v>133</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="13" spans="1:127">
+        <x:v>134</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13" spans="1:128">
       <x:c r="A13" s="0" t="s">
-        <x:v>134</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="14" spans="1:127">
+        <x:v>135</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14" spans="1:128">
       <x:c r="A14" s="0" t="s">
-        <x:v>135</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="16" spans="1:127">
+        <x:v>136</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="16" spans="1:128">
       <x:c r="A16" s="0" t="s">
-        <x:v>136</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="17" spans="1:127">
+        <x:v>137</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="17" spans="1:128">
       <x:c r="A17" s="0" t="s">
-        <x:v>137</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="19" spans="1:127">
+        <x:v>138</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="19" spans="1:128">
       <x:c r="A19" s="0" t="s">
-        <x:v>138</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="20" spans="1:127">
+        <x:v>139</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="20" spans="1:128">
       <x:c r="A20" s="0" t="s">
-        <x:v>139</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="21" spans="1:127">
+        <x:v>140</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="21" spans="1:128">
       <x:c r="A21" s="0" t="s">
-        <x:v>140</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="22" spans="1:127">
+        <x:v>141</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="22" spans="1:128">
       <x:c r="A22" s="0" t="s">
-        <x:v>141</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="23" spans="1:127">
+        <x:v>142</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="23" spans="1:128">
       <x:c r="A23" s="0" t="s"/>
     </x:row>
-    <x:row r="24" spans="1:127">
+    <x:row r="24" spans="1:128">
       <x:c r="A24" s="0" t="s">
-        <x:v>142</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="25" spans="1:127">
+        <x:v>143</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="25" spans="1:128">
       <x:c r="A25" s="0" t="s">
-        <x:v>143</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="26" spans="1:127">
+        <x:v>144</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="26" spans="1:128">
       <x:c r="A26" s="0" t="s">
-        <x:v>144</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="27" spans="1:127">
+        <x:v>145</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="27" spans="1:128">
       <x:c r="A27" s="0" t="s"/>
     </x:row>
-    <x:row r="28" spans="1:127">
-      <x:c r="A28" s="0" t="s">
-        <x:v>145</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="29" spans="1:127">
-      <x:c r="A29" s="0" t="s">
+    <x:row r="28" spans="1:128">
+      <x:c r="A28" s="0" t="s"/>
+    </x:row>
+    <x:row r="31" spans="1:128">
+      <x:c r="A31" s="0" t="s">
         <x:v>146</x:v>
       </x:c>
     </x:row>
-    <x:row r="30" spans="1:127">
-      <x:c r="A30" s="0" t="s">
+    <x:row r="32" spans="1:128">
+      <x:c r="A32" s="0" t="s">
         <x:v>147</x:v>
       </x:c>
     </x:row>
-    <x:row r="31" spans="1:127">
-      <x:c r="A31" s="0" t="s"/>
-    </x:row>
-    <x:row r="32" spans="1:127">
-      <x:c r="A32" s="0" t="s"/>
-    </x:row>
-    <x:row r="35" spans="1:127">
+    <x:row r="34" spans="1:128">
+      <x:c r="A34" s="0" t="s">
+        <x:v>148</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="35" spans="1:128">
       <x:c r="A35" s="0" t="s">
-        <x:v>148</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="36" spans="1:127">
-      <x:c r="A36" s="0" t="s">
         <x:v>149</x:v>
       </x:c>
     </x:row>
-    <x:row r="38" spans="1:127">
-      <x:c r="A38" s="0" t="s">
+    <x:row r="40" spans="1:128">
+      <x:c r="A40" s="0" t="s">
         <x:v>150</x:v>
       </x:c>
     </x:row>
-    <x:row r="39" spans="1:127">
-      <x:c r="A39" s="0" t="s">
+    <x:row r="42" spans="1:128">
+      <x:c r="A42" s="0" t="s">
         <x:v>151</x:v>
       </x:c>
     </x:row>
-    <x:row r="44" spans="1:127">
+    <x:row r="44" spans="1:128">
       <x:c r="A44" s="0" t="s">
         <x:v>152</x:v>
       </x:c>
     </x:row>
-    <x:row r="46" spans="1:127">
+    <x:row r="46" spans="1:128">
       <x:c r="A46" s="0" t="s">
         <x:v>153</x:v>
       </x:c>
     </x:row>
-    <x:row r="48" spans="1:127">
-      <x:c r="A48" s="0" t="s">
+    <x:row r="47" spans="1:128">
+      <x:c r="A47" s="0" t="s">
         <x:v>154</x:v>
       </x:c>
     </x:row>
-    <x:row r="50" spans="1:127">
+    <x:row r="49" spans="1:128">
+      <x:c r="A49" s="0" t="s">
+        <x:v>155</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="50" spans="1:128">
       <x:c r="A50" s="0" t="s">
-        <x:v>155</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="51" spans="1:127">
-      <x:c r="A51" s="0" t="s">
         <x:v>156</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="53" spans="1:127">
-      <x:c r="A53" s="0" t="s">
-        <x:v>157</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="54" spans="1:127">
-      <x:c r="A54" s="0" t="s">
-        <x:v>158</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
